--- a/Bank/中医内科学/肺/Bank_肺痈.xlsx
+++ b/Bank/中医内科学/肺/Bank_肺痈.xlsx
@@ -1,17 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28702"/>
+  <workbookPr filterPrivacy="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eliot/Desktop/wall/Bank/中医内科学/肺/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="22260" windowHeight="12640"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="173">
   <si>
     <t>下列哪部著作最早记载了肺痈的病名</t>
   </si>
@@ -532,12 +543,18 @@
   </si>
   <si>
     <t>诊断：肺痈（恢复期，气阴两伤，余邪未尽）病证分析：病人有咳嗽病史，肺气先伤，外邪乘虚侵袭，发为肺痈，表现热势渐盛，恶寒，烦渴，吐黄痰，味腥臭，伴有右胸部疼痛。来诊时邪气渐除，正气未复，症见午后潮热，咳吐少量清稀痰液，臭味不明显，偶尔有胸部的隐痛，气短乏力，时有自汗出，心烦，口干，面色无华，舌淡红，苔少，脉细数无力。治法：益气养阴，清热除邪。方药：沙参清肺汤合竹叶石膏汤。生黄英15g太子参20g麦冬15g北沙参15g桔梗10g慧改仁20g冬瓜仁15g半夏15g地骨皮10g白及15g甘草3g</t>
+  </si>
+  <si>
+    <t>term</t>
+  </si>
+  <si>
+    <t>case</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -571,7 +588,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -851,13 +868,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -883,7 +900,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>7</v>
       </c>
@@ -909,7 +926,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>13</v>
       </c>
@@ -935,7 +952,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>18</v>
       </c>
@@ -961,7 +978,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>24</v>
       </c>
@@ -987,7 +1004,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>30</v>
       </c>
@@ -1013,7 +1030,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>35</v>
       </c>
@@ -1039,7 +1056,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>40</v>
       </c>
@@ -1065,7 +1082,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>45</v>
       </c>
@@ -1091,7 +1108,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>50</v>
       </c>
@@ -1117,7 +1134,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>55</v>
       </c>
@@ -1143,7 +1160,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>60</v>
       </c>
@@ -1169,7 +1186,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>65</v>
       </c>
@@ -1195,7 +1212,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>70</v>
       </c>
@@ -1221,7 +1238,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>75</v>
       </c>
@@ -1237,6 +1254,9 @@
       <c r="F15" t="s">
         <v>78</v>
       </c>
+      <c r="G15">
+        <v>41</v>
+      </c>
       <c r="H15" t="s">
         <v>5</v>
       </c>
@@ -1247,7 +1267,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>79</v>
       </c>
@@ -1263,6 +1283,9 @@
       <c r="F16" t="s">
         <v>83</v>
       </c>
+      <c r="G16">
+        <v>41</v>
+      </c>
       <c r="H16" t="s">
         <v>5</v>
       </c>
@@ -1273,7 +1296,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>84</v>
       </c>
@@ -1289,6 +1312,9 @@
       <c r="F17" t="s">
         <v>88</v>
       </c>
+      <c r="G17">
+        <v>41</v>
+      </c>
       <c r="H17" t="s">
         <v>5</v>
       </c>
@@ -1299,7 +1325,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>89</v>
       </c>
@@ -1315,6 +1341,9 @@
       <c r="F18" t="s">
         <v>92</v>
       </c>
+      <c r="G18">
+        <v>41</v>
+      </c>
       <c r="H18" t="s">
         <v>5</v>
       </c>
@@ -1325,7 +1354,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>93</v>
       </c>
@@ -1341,6 +1370,9 @@
       <c r="F19" t="s">
         <v>83</v>
       </c>
+      <c r="G19">
+        <v>41</v>
+      </c>
       <c r="H19" t="s">
         <v>5</v>
       </c>
@@ -1351,7 +1383,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>94</v>
       </c>
@@ -1367,6 +1399,9 @@
       <c r="F20" t="s">
         <v>49</v>
       </c>
+      <c r="G20">
+        <v>41</v>
+      </c>
       <c r="H20" t="s">
         <v>5</v>
       </c>
@@ -1377,7 +1412,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>96</v>
       </c>
@@ -1393,6 +1428,9 @@
       <c r="F21" t="s">
         <v>98</v>
       </c>
+      <c r="G21">
+        <v>41</v>
+      </c>
       <c r="H21" t="s">
         <v>149</v>
       </c>
@@ -1406,7 +1444,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>101</v>
       </c>
@@ -1422,6 +1460,9 @@
       <c r="F22" t="s">
         <v>105</v>
       </c>
+      <c r="G22">
+        <v>41</v>
+      </c>
       <c r="H22" t="s">
         <v>149</v>
       </c>
@@ -1435,7 +1476,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>108</v>
       </c>
@@ -1451,6 +1492,9 @@
       <c r="F23" t="s">
         <v>110</v>
       </c>
+      <c r="G23">
+        <v>41</v>
+      </c>
       <c r="H23" t="s">
         <v>149</v>
       </c>
@@ -1464,7 +1508,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>112</v>
       </c>
@@ -1480,6 +1524,9 @@
       <c r="F24" t="s">
         <v>92</v>
       </c>
+      <c r="G24">
+        <v>41</v>
+      </c>
       <c r="H24" t="s">
         <v>149</v>
       </c>
@@ -1493,7 +1540,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>115</v>
       </c>
@@ -1509,6 +1556,9 @@
       <c r="F25" t="s">
         <v>119</v>
       </c>
+      <c r="G25">
+        <v>41</v>
+      </c>
       <c r="H25" t="s">
         <v>149</v>
       </c>
@@ -1522,7 +1572,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>121</v>
       </c>
@@ -1538,6 +1588,9 @@
       <c r="F26" t="s">
         <v>125</v>
       </c>
+      <c r="G26">
+        <v>41</v>
+      </c>
       <c r="H26" t="s">
         <v>149</v>
       </c>
@@ -1551,7 +1604,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>127</v>
       </c>
@@ -1567,6 +1620,9 @@
       <c r="F27" t="s">
         <v>131</v>
       </c>
+      <c r="G27">
+        <v>41</v>
+      </c>
       <c r="H27" t="s">
         <v>149</v>
       </c>
@@ -1580,7 +1636,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>134</v>
       </c>
@@ -1596,6 +1652,9 @@
       <c r="F28" t="s">
         <v>138</v>
       </c>
+      <c r="G28">
+        <v>41</v>
+      </c>
       <c r="H28" t="s">
         <v>149</v>
       </c>
@@ -1609,7 +1668,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>140</v>
       </c>
@@ -1625,6 +1684,9 @@
       <c r="F29" t="s">
         <v>49</v>
       </c>
+      <c r="G29">
+        <v>41</v>
+      </c>
       <c r="H29" t="s">
         <v>149</v>
       </c>
@@ -1638,7 +1700,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>143</v>
       </c>
@@ -1654,6 +1716,9 @@
       <c r="F30" t="s">
         <v>38</v>
       </c>
+      <c r="G30">
+        <v>41</v>
+      </c>
       <c r="H30" t="s">
         <v>149</v>
       </c>
@@ -1667,12 +1732,15 @@
         <v>153</v>
       </c>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>54</v>
       </c>
+      <c r="G31">
+        <v>41</v>
+      </c>
       <c r="H31" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="J31">
         <v>1</v>
@@ -1681,12 +1749,15 @@
         <v>162</v>
       </c>
     </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>148</v>
       </c>
+      <c r="G32">
+        <v>41</v>
+      </c>
       <c r="H32" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="J32">
         <v>1</v>
@@ -1695,10 +1766,13 @@
         <v>163</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>155</v>
       </c>
+      <c r="G33">
+        <v>41</v>
+      </c>
       <c r="H33" t="s">
         <v>154</v>
       </c>
@@ -1709,10 +1783,13 @@
         <v>164</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>156</v>
       </c>
+      <c r="G34">
+        <v>41</v>
+      </c>
       <c r="H34" t="s">
         <v>154</v>
       </c>
@@ -1723,10 +1800,13 @@
         <v>165</v>
       </c>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>157</v>
       </c>
+      <c r="G35">
+        <v>41</v>
+      </c>
       <c r="H35" t="s">
         <v>154</v>
       </c>
@@ -1737,10 +1817,13 @@
         <v>166</v>
       </c>
     </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>158</v>
       </c>
+      <c r="G36">
+        <v>41</v>
+      </c>
       <c r="H36" t="s">
         <v>154</v>
       </c>
@@ -1751,10 +1834,13 @@
         <v>167</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
         <v>159</v>
       </c>
+      <c r="G37">
+        <v>41</v>
+      </c>
       <c r="H37" t="s">
         <v>154</v>
       </c>
@@ -1765,10 +1851,13 @@
         <v>168</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>160</v>
       </c>
+      <c r="G38">
+        <v>41</v>
+      </c>
       <c r="H38" t="s">
         <v>154</v>
       </c>
@@ -1779,12 +1868,15 @@
         <v>169</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
         <v>161</v>
       </c>
+      <c r="G39">
+        <v>41</v>
+      </c>
       <c r="H39" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="J39">
         <v>1</v>
